--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/123/word_level_predictions_123.xlsx
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G76" s="2" t="b">
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>False_I-NonEvent</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G265" s="2" t="b">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="L265" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G434" t="b">
@@ -23013,57 +23013,57 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E435" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" t="inlineStr">
+      <c r="F435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K435" t="b">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
+      <c r="G435" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/123/word_level_predictions_123.xlsx
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G76" s="2" t="b">
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>False_I-NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G265" s="2" t="b">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="L265" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -22989,81 +22989,81 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>35</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>8</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I434" t="b">
-        <v>1</v>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K434" t="b">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B435" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C435" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D435" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E435" s="2" t="inlineStr">
+      <c r="F435" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="G435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
